--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -534,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.333368333333333</v>
+        <v>0.551034</v>
       </c>
       <c r="H2">
-        <v>4.000105</v>
+        <v>1.653102</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N2">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q2">
-        <v>0.09240731451722223</v>
+        <v>0.134085674712</v>
       </c>
       <c r="R2">
-        <v>0.8316658306550001</v>
+        <v>1.206771072408</v>
       </c>
       <c r="S2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="T2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.333368333333333</v>
+        <v>0.551034</v>
       </c>
       <c r="H3">
-        <v>4.000105</v>
+        <v>1.653102</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q3">
-        <v>0.4152482333133334</v>
+        <v>0.171607416552</v>
       </c>
       <c r="R3">
-        <v>3.737234099820001</v>
+        <v>1.544466748968</v>
       </c>
       <c r="S3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="T3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.333368333333333</v>
+        <v>0.551034</v>
       </c>
       <c r="H4">
-        <v>4.000105</v>
+        <v>1.653102</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N4">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q4">
-        <v>225.247692596725</v>
+        <v>175.341161220192</v>
       </c>
       <c r="R4">
-        <v>2027.229233370525</v>
+        <v>1578.070450981728</v>
       </c>
       <c r="S4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="T4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.333368333333333</v>
+        <v>0.551034</v>
       </c>
       <c r="H5">
-        <v>4.000105</v>
+        <v>1.653102</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N5">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q5">
-        <v>0.1961951499875</v>
+        <v>0.523155812355</v>
       </c>
       <c r="R5">
-        <v>1.177170899925</v>
+        <v>3.13893487413</v>
       </c>
       <c r="S5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="T5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.333368333333333</v>
+        <v>0.551034</v>
       </c>
       <c r="H6">
-        <v>4.000105</v>
+        <v>1.653102</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N6">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q6">
-        <v>275.1349927706467</v>
+        <v>31.982575965714</v>
       </c>
       <c r="R6">
-        <v>2476.21493493582</v>
+        <v>287.843183691426</v>
       </c>
       <c r="S6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="T6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
     </row>
   </sheetData>
